--- a/biology/Botanique/Sciadopityaceae/Sciadopityaceae.xlsx
+++ b/biology/Botanique/Sciadopityaceae/Sciadopityaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sciadopityaceae sont une famille de conifères de l'ordre des Cupressales. Elle contient un seul genre actuel auparavant placé dans les Cupressaceae ou les Taxodiaceae : Sciadopitys, et plusieurs genres fossiles. Sciadopitys ne contient lui-même qu'une seule espèce actuelle, Sciadopitys verticillata, et plusieurs espèces fossiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Sciadopitys, dérivé du grec σκιαδος / skiados, verticille, et πίτυς / pitys, sapin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Sciadopitys, dérivé du grec σκιαδος / skiados, verticille, et πίτυς / pitys, sapin.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023) :
 † Sciadopitycutis
 † Sciadopityoides
 † Sciadopityostrobus
 Sciadopitys
 † Sciadopityspollenites
 † Sciadopitytes
-Selon l'IRMNG  (10 août 2023)[3] :
+Selon l'IRMNG  (10 août 2023) :
 † Sciadopitophyllum D.C. Christophel, 1973
 † Sciadopityostrobus K. Saiki, 1992
 Sciadopitys Siebold &amp; Zuccarini, 1842
